--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>429733.4673234764</v>
+        <v>477617.8290147702</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12513436.39383161</v>
+        <v>12414234.98497664</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7511787.39162451</v>
+        <v>7979666.900172081</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9198083.020434361</v>
+        <v>8994054.180421559</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C2" t="n">
-        <v>165.1725371760945</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.396723986041116</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="3">
@@ -743,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.8196955706812</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>176.0166538343219</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -861,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>161.8294550022487</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="X4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.52558716632</v>
+        <v>32.35016756540383</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>57.08569488870441</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>153.8072380324131</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368137</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -980,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>20.10332478271063</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>172.0471506133241</v>
       </c>
       <c r="W6" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1098,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="T7" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>161.8294550022484</v>
       </c>
       <c r="X7" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.35016756540411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>232.2791855053265</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G8" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.7138800015061</v>
+        <v>182.5570120086803</v>
       </c>
     </row>
     <row r="9">
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>8.240857482699274</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>176.0166538343225</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>121.6679370995831</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,28 +1335,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>5.573327086027633</v>
       </c>
       <c r="U10" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W10" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9338715566937</v>
+        <v>138.7550733631832</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.4645365582629</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9711388310543</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9961436311612</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.20961580558528</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.0059677968616</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H12" t="n">
-        <v>89.65963851412518</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>8.915218264396643</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.264216864854</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7427643629146</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7875959384519</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.00072357279072</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>129.9973134521173</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.17712508496179</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5722280944081</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>45.87161006402654</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
-        <v>294.7321536188797</v>
+        <v>259.5412770465429</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9961436311612</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.0059677968616</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H15" t="n">
-        <v>89.65963851412519</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>8.915218264396685</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.264216864854</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7427643629146</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7875959384519</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35481268301177</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5722280944081</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2121353820159</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>197.0302958186687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>187.6285714858577</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>259.1900271674405</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.65963851412519</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>8.915218264396685</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>85.0072653311055</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T19" t="n">
-        <v>168.4243449750659</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>208.0568180628458</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>102.5809085984654</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>42.04518470759564</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.65963851412519</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>8.915218264396685</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>78.15697693098696</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>203.4068132192036</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>340.8792122661204</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>187.1115933738219</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>129.928388720434</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2493,7 +2493,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>86.37868314456225</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2611,10 +2611,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>25.28912695662094</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>127.0569402646407</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>202.4425172951288</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>61.26635328439163</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>27.77348033832474</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>138.6444210303392</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>104.2590660175762</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3037,10 +3037,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>225.3744434364381</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.25417384166656</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>62.09969057421775</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>223.3200711275817</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>35.25179469562165</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>249.1524003704173</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>31.5426315958399</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>201.0130390227254</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>150.083309824663</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>133.2099892451619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>109.3235974497386</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>27.19292662790653</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3748,13 +3748,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>126.7498226612768</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>106.111715575619</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>186.2116501063446</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>43.75688320100043</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3982,13 +3982,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>120.4806283466937</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>292.2938138909326</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>6.380068175847874</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>39.7780857112163</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.8429936158253</v>
+        <v>210.8831693494276</v>
       </c>
       <c r="C2" t="n">
-        <v>15.0020469733056</v>
+        <v>21.46338433294306</v>
       </c>
       <c r="D2" t="n">
-        <v>15.0020469733056</v>
+        <v>21.46338433294306</v>
       </c>
       <c r="E2" t="n">
-        <v>15.0020469733056</v>
+        <v>21.46338433294306</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0020469733056</v>
+        <v>21.46338433294306</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>21.46338433294306</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678483</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058915</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079179</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644747</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123819</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.484525998557</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020252</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652787</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652787</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>589.7227393823966</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>589.7227393823966</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>589.7227393823966</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652798</v>
+        <v>589.7227393823966</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487949</v>
+        <v>589.7227393823966</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487949</v>
+        <v>589.7227393823966</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.2627786323101</v>
+        <v>400.3029543659121</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>598.8192732198761</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C3" t="n">
-        <v>598.8192732198761</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D3" t="n">
-        <v>449.8848635586248</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E3" t="n">
-        <v>290.6474085531693</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F3" t="n">
-        <v>144.1128505800543</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476342</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017053</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652787</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>722.9192922843267</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198761</v>
+        <v>571.636216838923</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198761</v>
+        <v>382.2164318224385</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198761</v>
+        <v>382.2164318224385</v>
       </c>
       <c r="V3" t="n">
-        <v>598.8192732198761</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="W3" t="n">
-        <v>598.8192732198761</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X3" t="n">
-        <v>598.8192732198761</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y3" t="n">
-        <v>598.8192732198761</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>118.7527324484193</v>
       </c>
       <c r="M4" t="n">
-        <v>295.5529562639638</v>
+        <v>304.4030637430758</v>
       </c>
       <c r="N4" t="n">
-        <v>481.2032875586206</v>
+        <v>490.0533950377322</v>
       </c>
       <c r="O4" t="n">
-        <v>634.372383960802</v>
+        <v>634.372383960801</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652787</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846275</v>
+        <v>750.1023486652787</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846275</v>
+        <v>615.9383389575105</v>
       </c>
       <c r="S4" t="n">
-        <v>557.3057129681426</v>
+        <v>615.9383389575105</v>
       </c>
       <c r="T4" t="n">
-        <v>393.8416170062752</v>
+        <v>615.9383389575105</v>
       </c>
       <c r="U4" t="n">
-        <v>393.8416170062752</v>
+        <v>426.518553941026</v>
       </c>
       <c r="V4" t="n">
-        <v>393.8416170062752</v>
+        <v>237.0987689245414</v>
       </c>
       <c r="W4" t="n">
-        <v>393.8416170062752</v>
+        <v>47.67898390805692</v>
       </c>
       <c r="X4" t="n">
-        <v>204.4218319897904</v>
+        <v>47.67898390805692</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>359.7826784871772</v>
+        <v>388.8228542207792</v>
       </c>
       <c r="C5" t="n">
-        <v>359.7826784871772</v>
+        <v>199.4030692042947</v>
       </c>
       <c r="D5" t="n">
-        <v>359.7826784871772</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="E5" t="n">
-        <v>359.7826784871772</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="F5" t="n">
-        <v>204.4218319897903</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J5" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058933</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079182</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M5" t="n">
         <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O5" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R5" t="n">
-        <v>738.6222485201465</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="S5" t="n">
-        <v>738.6222485201465</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="T5" t="n">
-        <v>738.6222485201465</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="U5" t="n">
-        <v>738.6222485201465</v>
+        <v>388.8228542207792</v>
       </c>
       <c r="V5" t="n">
-        <v>549.2024635036619</v>
+        <v>388.8228542207792</v>
       </c>
       <c r="W5" t="n">
-        <v>359.7826784871772</v>
+        <v>388.8228542207792</v>
       </c>
       <c r="X5" t="n">
-        <v>359.7826784871772</v>
+        <v>388.8228542207792</v>
       </c>
       <c r="Y5" t="n">
-        <v>359.7826784871772</v>
+        <v>388.8228542207792</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181.8429936158253</v>
+        <v>425.0342726003555</v>
       </c>
       <c r="C6" t="n">
-        <v>181.8429936158253</v>
+        <v>425.0342726003555</v>
       </c>
       <c r="D6" t="n">
-        <v>181.8429936158253</v>
+        <v>276.0998629391042</v>
       </c>
       <c r="E6" t="n">
-        <v>181.8429936158253</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F6" t="n">
-        <v>35.30843564271026</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330559</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140241</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546596</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476345</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652792</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="T6" t="n">
-        <v>560.6825636487946</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="U6" t="n">
-        <v>560.6825636487946</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="V6" t="n">
-        <v>560.6825636487946</v>
+        <v>425.0342726003555</v>
       </c>
       <c r="W6" t="n">
-        <v>371.26277863231</v>
+        <v>425.0342726003555</v>
       </c>
       <c r="X6" t="n">
-        <v>181.8429936158253</v>
+        <v>425.0342726003555</v>
       </c>
       <c r="Y6" t="n">
-        <v>181.8429936158253</v>
+        <v>425.0342726003555</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L7" t="n">
-        <v>187.8896250884406</v>
+        <v>187.8896250884405</v>
       </c>
       <c r="M7" t="n">
-        <v>373.5399563830972</v>
+        <v>373.539956383097</v>
       </c>
       <c r="N7" t="n">
-        <v>559.1902876777538</v>
+        <v>559.1902876777534</v>
       </c>
       <c r="O7" t="n">
-        <v>721.9284911143038</v>
+        <v>721.9284911143035</v>
       </c>
       <c r="P7" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q7" t="n">
-        <v>750.1023486652792</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="R7" t="n">
-        <v>615.9383389575112</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="S7" t="n">
-        <v>426.5185539410265</v>
+        <v>557.3057129681416</v>
       </c>
       <c r="T7" t="n">
-        <v>237.0987689245419</v>
+        <v>557.3057129681416</v>
       </c>
       <c r="U7" t="n">
-        <v>237.0987689245419</v>
+        <v>367.8859279516571</v>
       </c>
       <c r="V7" t="n">
-        <v>237.0987689245419</v>
+        <v>178.4661429351726</v>
       </c>
       <c r="W7" t="n">
-        <v>237.0987689245419</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X7" t="n">
-        <v>47.67898390805721</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>788.4778634388466</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="C8" t="n">
-        <v>788.4778634388466</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="D8" t="n">
-        <v>553.8524235344764</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="E8" t="n">
-        <v>553.8524235344764</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="F8" t="n">
-        <v>287.4747669672984</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G8" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H8" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>49.28269087917579</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>142.264087905254</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>294.5174947515905</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>495.5981834030603</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N8" t="n">
-        <v>704.5463761991316</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>888.5149683358413</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P8" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q8" t="n">
-        <v>1054.855520006025</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R8" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="S8" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="T8" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="U8" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="V8" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="W8" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="X8" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="Y8" t="n">
-        <v>788.4778634388466</v>
+        <v>393.8416170062753</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>167.6316683732355</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C9" t="n">
-        <v>167.6316683732355</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D9" t="n">
-        <v>167.6316683732355</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E9" t="n">
-        <v>167.6316683732355</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F9" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G9" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H9" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I9" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J9" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>95.78113116957465</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>338.874007230231</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4746963267547</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N9" t="n">
-        <v>739.5286634293598</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O9" t="n">
-        <v>909.4672107560896</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P9" t="n">
-        <v>1026.524810789493</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q9" t="n">
-        <v>1054.855520006025</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R9" t="n">
-        <v>1054.855520006025</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S9" t="n">
-        <v>1054.855520006025</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="T9" t="n">
-        <v>1046.531421538652</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="U9" t="n">
-        <v>818.395575575465</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="V9" t="n">
-        <v>583.2434673437223</v>
+        <v>382.2164318224395</v>
       </c>
       <c r="W9" t="n">
-        <v>583.2434673437223</v>
+        <v>192.7966468059547</v>
       </c>
       <c r="X9" t="n">
-        <v>375.3919671381894</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y9" t="n">
-        <v>167.6316683732355</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>294.1106559736513</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="C10" t="n">
-        <v>294.1106559736513</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="D10" t="n">
-        <v>143.9940165613156</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="E10" t="n">
-        <v>21.09711040012049</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="F10" t="n">
-        <v>21.09711040012049</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="G10" t="n">
-        <v>21.09711040012049</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="H10" t="n">
-        <v>21.09711040012049</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="I10" t="n">
-        <v>21.09711040012049</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J10" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4133765287946</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>316.7083726551008</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M10" t="n">
-        <v>527.7368878375335</v>
+        <v>373.5399563830975</v>
       </c>
       <c r="N10" t="n">
-        <v>739.1822330227045</v>
+        <v>559.1902876777543</v>
       </c>
       <c r="O10" t="n">
-        <v>918.4699372075542</v>
+        <v>721.9284911143045</v>
       </c>
       <c r="P10" t="n">
-        <v>1048.360858816803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q10" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="R10" t="n">
-        <v>1054.855520006025</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="S10" t="n">
-        <v>1054.855520006025</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="T10" t="n">
-        <v>1054.855520006025</v>
+        <v>606.9318649576398</v>
       </c>
       <c r="U10" t="n">
-        <v>788.4778634388466</v>
+        <v>417.512079941155</v>
       </c>
       <c r="V10" t="n">
-        <v>788.4778634388466</v>
+        <v>228.0922949246701</v>
       </c>
       <c r="W10" t="n">
-        <v>522.1002068716687</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="X10" t="n">
-        <v>294.1106559736513</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="Y10" t="n">
-        <v>294.1106559736513</v>
+        <v>38.67250990818521</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1619.514760630424</v>
+        <v>1054.551232880758</v>
       </c>
       <c r="C11" t="n">
-        <v>1250.552243690013</v>
+        <v>1054.551232880758</v>
       </c>
       <c r="D11" t="n">
-        <v>892.2865450832621</v>
+        <v>1054.551232880758</v>
       </c>
       <c r="E11" t="n">
-        <v>892.2865450832621</v>
+        <v>668.7629802825134</v>
       </c>
       <c r="F11" t="n">
-        <v>481.3006402936546</v>
+        <v>257.7770754929058</v>
       </c>
       <c r="G11" t="n">
-        <v>66.21592154951945</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.21592154951945</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.21592154951945</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J11" t="n">
-        <v>254.0744928369593</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K11" t="n">
-        <v>586.3643121319021</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L11" t="n">
-        <v>1035.500977900982</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M11" t="n">
-        <v>1566.921495383895</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N11" t="n">
-        <v>2111.554760801561</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O11" t="n">
-        <v>2612.501248106874</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P11" t="n">
-        <v>3005.546484356409</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q11" t="n">
-        <v>3252.534341412641</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R11" t="n">
-        <v>3310.796077475973</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>3200.225838528232</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T11" t="n">
-        <v>2994.194385163531</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U11" t="n">
-        <v>2740.662926950236</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V11" t="n">
-        <v>2409.600039606666</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W11" t="n">
-        <v>2056.831384336551</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X11" t="n">
-        <v>2056.831384336551</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="Y11" t="n">
-        <v>2006.114600694546</v>
+        <v>1441.151072944879</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3156003142904</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8625710331634</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D12" t="n">
-        <v>607.928161371912</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6907063664564</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1561483933415</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G12" t="n">
-        <v>165.7864839520676</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H12" t="n">
-        <v>75.22119252365796</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I12" t="n">
-        <v>66.21592154951945</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J12" t="n">
-        <v>159.2853526912741</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K12" t="n">
-        <v>396.5106591183472</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L12" t="n">
-        <v>761.8119001858313</v>
+        <v>777.6069060507746</v>
       </c>
       <c r="M12" t="n">
-        <v>1207.458086537445</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N12" t="n">
-        <v>1679.30784629592</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O12" t="n">
-        <v>2088.738397943177</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P12" t="n">
-        <v>2398.009445431871</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q12" t="n">
-        <v>2554.829753957941</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R12" t="n">
-        <v>2554.829753957941</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S12" t="n">
-        <v>2425.269938942937</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.600479990498</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.532201264789</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.380093033047</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.142736304845</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.291236099312</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.530937334358</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>360.3951309581934</v>
+        <v>648.5734018828547</v>
       </c>
       <c r="C13" t="n">
-        <v>360.3951309581934</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D13" t="n">
-        <v>360.3951309581934</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E13" t="n">
-        <v>212.4820373758002</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F13" t="n">
-        <v>212.4820373758002</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G13" t="n">
-        <v>212.4820373758002</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H13" t="n">
-        <v>66.21592154951945</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I13" t="n">
-        <v>66.21592154951945</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J13" t="n">
-        <v>110.9572157501789</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K13" t="n">
-        <v>314.3177428179431</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L13" t="n">
-        <v>630.0756374886843</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M13" t="n">
-        <v>973.3871879897969</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N13" t="n">
-        <v>1313.970173580891</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>1612.537390213392</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P13" t="n">
-        <v>1844.492540894131</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q13" t="n">
-        <v>1921.651183891644</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1831.57327976542</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S13" t="n">
-        <v>1639.791488662171</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T13" t="n">
-        <v>1418.00135927388</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U13" t="n">
-        <v>1128.898192221339</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V13" t="n">
-        <v>1128.898192221339</v>
+        <v>1158.783151063345</v>
       </c>
       <c r="W13" t="n">
-        <v>839.4810221843779</v>
+        <v>869.3659810263848</v>
       </c>
       <c r="X13" t="n">
-        <v>611.4914712863606</v>
+        <v>869.3659810263848</v>
       </c>
       <c r="Y13" t="n">
-        <v>390.6988921428305</v>
+        <v>648.5734018828547</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1575.996801618092</v>
+        <v>1114.902695549578</v>
       </c>
       <c r="C14" t="n">
-        <v>1207.03428467768</v>
+        <v>1114.902695549578</v>
       </c>
       <c r="D14" t="n">
-        <v>1160.699325017048</v>
+        <v>1114.902695549578</v>
       </c>
       <c r="E14" t="n">
-        <v>774.9110724188034</v>
+        <v>729.1144429513333</v>
       </c>
       <c r="F14" t="n">
-        <v>363.9251676291959</v>
+        <v>729.1144429513333</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9251676291959</v>
+        <v>313.4096926756222</v>
       </c>
       <c r="H14" t="n">
-        <v>66.21592154951941</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I14" t="n">
-        <v>66.21592154951941</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J14" t="n">
-        <v>254.0744928369593</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K14" t="n">
-        <v>586.3643121319019</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L14" t="n">
-        <v>1035.500977900981</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M14" t="n">
-        <v>1566.921495383894</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N14" t="n">
-        <v>2111.55476080156</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O14" t="n">
-        <v>2612.501248106872</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P14" t="n">
-        <v>3005.546484356407</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q14" t="n">
-        <v>3252.534341412639</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R14" t="n">
-        <v>3310.79607747597</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S14" t="n">
-        <v>3310.79607747597</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T14" t="n">
-        <v>3310.79607747597</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U14" t="n">
-        <v>3057.264619262676</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V14" t="n">
-        <v>2726.201731919105</v>
+        <v>2231.276441056583</v>
       </c>
       <c r="W14" t="n">
-        <v>2726.201731919105</v>
+        <v>1878.507785786469</v>
       </c>
       <c r="X14" t="n">
-        <v>2352.735973658026</v>
+        <v>1505.042027525389</v>
       </c>
       <c r="Y14" t="n">
-        <v>1962.596641682214</v>
+        <v>1114.902695549578</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3156003142894</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8625710331625</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9281613719111</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6907063664555</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1561483933406</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G15" t="n">
-        <v>165.7864839520668</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>75.22119252365746</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I15" t="n">
-        <v>66.21592154951941</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J15" t="n">
-        <v>159.2853526912741</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K15" t="n">
-        <v>396.510659118347</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L15" t="n">
-        <v>761.8119001858311</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M15" t="n">
-        <v>1207.458086537445</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N15" t="n">
-        <v>1679.307846295919</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O15" t="n">
-        <v>2088.738397943176</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P15" t="n">
-        <v>2398.009445431869</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q15" t="n">
-        <v>2554.82975395794</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R15" t="n">
-        <v>2554.82975395794</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S15" t="n">
-        <v>2425.269938942936</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.600479990497</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.532201264788</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.380093033046</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.142736304844</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.291236099311</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.530937334358</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.21592154951941</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="C16" t="n">
-        <v>66.21592154951941</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="D16" t="n">
-        <v>66.21592154951941</v>
+        <v>430.1310041178871</v>
       </c>
       <c r="E16" t="n">
-        <v>66.21592154951941</v>
+        <v>282.217910535494</v>
       </c>
       <c r="F16" t="n">
-        <v>66.21592154951941</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G16" t="n">
-        <v>66.21592154951941</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H16" t="n">
-        <v>66.21592154951941</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I16" t="n">
-        <v>66.21592154951941</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J16" t="n">
-        <v>110.9572157501788</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K16" t="n">
-        <v>314.3177428179429</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L16" t="n">
-        <v>630.0756374886839</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M16" t="n">
-        <v>973.3871879897964</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N16" t="n">
-        <v>1313.970173580891</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O16" t="n">
-        <v>1612.537390213391</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P16" t="n">
-        <v>1844.49254089413</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q16" t="n">
-        <v>1921.651183891643</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>1921.651183891643</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S16" t="n">
-        <v>1729.869392788394</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T16" t="n">
-        <v>1508.079263400103</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U16" t="n">
-        <v>1218.976096347562</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V16" t="n">
-        <v>964.2916081416751</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W16" t="n">
-        <v>674.8744381047145</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="X16" t="n">
-        <v>446.8848872066972</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.8643863797591</v>
+        <v>580.2476435302228</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1118.846486362072</v>
+        <v>1852.026402734473</v>
       </c>
       <c r="C17" t="n">
-        <v>749.8839694216604</v>
+        <v>1483.063885794062</v>
       </c>
       <c r="D17" t="n">
-        <v>749.8839694216604</v>
+        <v>1124.798187187311</v>
       </c>
       <c r="E17" t="n">
-        <v>364.0957168234162</v>
+        <v>739.0099345890669</v>
       </c>
       <c r="F17" t="n">
-        <v>364.0957168234162</v>
+        <v>328.0240297994594</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>254.0744928369595</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>586.3643121319021</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1035.500977900981</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2111.55476080156</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2612.501248106872</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3005.546484356407</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3252.534341412639</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3310.79607747597</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3200.22583852823</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3200.22583852823</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794323</v>
+        <v>2946.694380314936</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450752</v>
+        <v>2615.631492971365</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180638</v>
+        <v>2615.631492971365</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919558</v>
+        <v>2242.165734710285</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943746</v>
+        <v>1852.026402734473</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3156003142898</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8625710331628</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>607.9281613719115</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6907063664561</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1561483933411</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>165.7864839520668</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>75.22119252365748</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>159.285352691274</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>396.5106591183469</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>761.811900185831</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1207.458086537444</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2088.738397943176</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2398.009445431869</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304844</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.3679798527295</v>
+        <v>446.8848872066972</v>
       </c>
       <c r="C19" t="n">
-        <v>511.4317969248226</v>
+        <v>446.8848872066972</v>
       </c>
       <c r="D19" t="n">
-        <v>361.3151575124868</v>
+        <v>361.0189626298229</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300937</v>
+        <v>213.1058690474298</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>110.9572157501788</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>314.3177428179429</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>630.0756374886839</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>973.3871879897964</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213391</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.49254089413</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1729.869392788394</v>
       </c>
       <c r="T19" t="n">
-        <v>1565.483062930404</v>
+        <v>1508.079263400103</v>
       </c>
       <c r="U19" t="n">
-        <v>1565.483062930404</v>
+        <v>1218.976096347562</v>
       </c>
       <c r="V19" t="n">
-        <v>1310.798574724517</v>
+        <v>964.2916081416751</v>
       </c>
       <c r="W19" t="n">
-        <v>1310.798574724517</v>
+        <v>674.8744381047145</v>
       </c>
       <c r="X19" t="n">
-        <v>1082.809023826499</v>
+        <v>446.8848872066972</v>
       </c>
       <c r="Y19" t="n">
-        <v>862.0164446829692</v>
+        <v>446.8848872066972</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2303.170539913434</v>
+        <v>1407.336024959089</v>
       </c>
       <c r="C20" t="n">
-        <v>1934.208022973022</v>
+        <v>1038.373508018677</v>
       </c>
       <c r="D20" t="n">
-        <v>1575.942324366272</v>
+        <v>934.756428626288</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>934.756428626288</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>523.7705238366805</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>254.0744928369595</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>586.3643121319021</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1035.500977900981</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2111.554760801561</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2612.501248106873</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3005.546484356408</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3252.53434141264</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609172</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993395</v>
+        <v>3104.76462411127</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267231</v>
+        <v>2851.233165897976</v>
       </c>
       <c r="V20" t="n">
-        <v>2866.097597267231</v>
+        <v>2520.170278554405</v>
       </c>
       <c r="W20" t="n">
-        <v>2513.328941997117</v>
+        <v>2167.401623284291</v>
       </c>
       <c r="X20" t="n">
-        <v>2513.328941997117</v>
+        <v>1793.935865023211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2513.328941997117</v>
+        <v>1793.935865023211</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3156003142899</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8625710331629</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9281613719115</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>448.690706366456</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>302.156148393341</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927784</v>
+        <v>165.7864839520666</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064586</v>
+        <v>75.22119252365748</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>396.510659118347</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>761.8119001858311</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2088.738397943176</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2398.00944543187</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.142736304845</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218345</v>
+        <v>464.2151852341933</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218345</v>
+        <v>295.2790023062864</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218345</v>
+        <v>145.1623628939507</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218345</v>
+        <v>145.1623628939507</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218345</v>
+        <v>145.1623628939507</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>110.9572157501788</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>314.3177428179429</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>630.0756374886839</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>973.3871879897964</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213391</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.49254089413</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.60866391532</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="T22" t="n">
-        <v>1530.147236421175</v>
+        <v>1699.861054503352</v>
       </c>
       <c r="U22" t="n">
-        <v>1241.044369546818</v>
+        <v>1410.757887450811</v>
       </c>
       <c r="V22" t="n">
-        <v>986.3598813409312</v>
+        <v>1156.073399244924</v>
       </c>
       <c r="W22" t="n">
-        <v>696.9427113039706</v>
+        <v>866.6562292079632</v>
       </c>
       <c r="X22" t="n">
-        <v>468.9531604059532</v>
+        <v>866.6562292079632</v>
       </c>
       <c r="Y22" t="n">
-        <v>248.1605812624231</v>
+        <v>645.863650064433</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1980.946859214234</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E23" t="n">
         <v>892.5704713767946</v>
@@ -5989,10 +5989,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6019,22 +6019,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539436</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>2741.012457539436</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>2367.546699278356</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y23" t="n">
-        <v>2367.546699278356</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.3754302374108</v>
+        <v>935.322011573528</v>
       </c>
       <c r="C25" t="n">
-        <v>679.1346335501037</v>
+        <v>766.3858286456211</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>616.2691892332854</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>468.3560956508923</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574644</v>
+        <v>321.4661481529819</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>153.7633115277008</v>
       </c>
       <c r="H25" t="n">
         <v>66.5121164321834</v>
@@ -6180,19 +6180,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1513.842048484845</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1259.157560278958</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W25" t="n">
-        <v>1259.157560278958</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X25" t="n">
-        <v>1031.168009380941</v>
+        <v>935.322011573528</v>
       </c>
       <c r="Y25" t="n">
-        <v>810.3754302374108</v>
+        <v>935.322011573528</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1523.222118183415</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C26" t="n">
-        <v>1523.222118183415</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D26" t="n">
-        <v>1164.956419576664</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E26" t="n">
-        <v>779.1681669784198</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G26" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>2983.792832837033</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2652.729945493462</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W26" t="n">
-        <v>2299.961290223348</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X26" t="n">
-        <v>2299.961290223348</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y26" t="n">
-        <v>1909.821958247536</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6311,7 +6311,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6429,7 +6429,7 @@
         <v>452.6479724696239</v>
       </c>
       <c r="Y28" t="n">
-        <v>248.1605812624231</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6487,13 +6487,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
         <v>2755.806928794324</v>
@@ -6502,13 +6502,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180638</v>
+        <v>2396.690020906991</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2023.224262645911</v>
       </c>
       <c r="Y29" t="n">
-        <v>1698.509627919559</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6603,22 +6603,22 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E31" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6654,10 +6654,10 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1565.483062930404</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V31" t="n">
-        <v>1310.798574724517</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W31" t="n">
         <v>1310.798574724517</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1892.184635123826</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C32" t="n">
-        <v>1523.222118183415</v>
+        <v>1365.084818551269</v>
       </c>
       <c r="D32" t="n">
-        <v>1164.956419576664</v>
+        <v>1006.819119944519</v>
       </c>
       <c r="E32" t="n">
-        <v>779.1681669784198</v>
+        <v>1006.819119944519</v>
       </c>
       <c r="F32" t="n">
         <v>779.1681669784198</v>
@@ -6694,16 +6694,16 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6712,10 +6712,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296686</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>2678.274518176917</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W32" t="n">
-        <v>2325.505862906803</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X32" t="n">
-        <v>2325.505862906803</v>
+        <v>2510.786507531614</v>
       </c>
       <c r="Y32" t="n">
-        <v>2278.784475187948</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6785,40 +6785,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>403.1511359853714</v>
+        <v>758.9852304414014</v>
       </c>
       <c r="C34" t="n">
-        <v>234.2149530574645</v>
+        <v>590.0490475134945</v>
       </c>
       <c r="D34" t="n">
-        <v>234.2149530574645</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E34" t="n">
-        <v>234.2149530574645</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1288.266219063046</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V34" t="n">
-        <v>1033.581730857159</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W34" t="n">
-        <v>1033.581730857159</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X34" t="n">
-        <v>805.5921799591413</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="Y34" t="n">
-        <v>584.7996008156111</v>
+        <v>940.6336952716412</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1565.440264581601</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C35" t="n">
-        <v>1196.477747641189</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D35" t="n">
-        <v>1196.477747641189</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>810.6894950429446</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>399.703590253337</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>399.703590253337</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>102.1199898621043</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2678.274518176916</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2325.505862906802</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X35" t="n">
-        <v>1952.040104645722</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y35" t="n">
-        <v>1952.040104645722</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.3679798527295</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C37" t="n">
-        <v>511.4317969248226</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124868</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
         <v>66.5121164321834</v>
@@ -7128,19 +7128,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1310.798574724517</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1310.798574724517</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>1310.798574724517</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X37" t="n">
-        <v>1082.809023826499</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y37" t="n">
-        <v>862.0164446829692</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1381.278680221567</v>
+        <v>2085.807325826217</v>
       </c>
       <c r="C38" t="n">
-        <v>1012.316163281155</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D38" t="n">
-        <v>654.050464674405</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E38" t="n">
-        <v>519.4949199823222</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F38" t="n">
-        <v>108.5090151927147</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V38" t="n">
-        <v>2884.252265792695</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W38" t="n">
-        <v>2531.48361052258</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X38" t="n">
-        <v>2158.017852261501</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="Y38" t="n">
-        <v>1767.878520285689</v>
+        <v>2472.407165890339</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
         <v>176.0213023927779</v>
@@ -7253,46 +7253,46 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>492.7661230698578</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C40" t="n">
-        <v>323.8299401419509</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D40" t="n">
-        <v>213.4020639300938</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>93.97971908663445</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>93.97971908663445</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1735.608663915319</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1446.505797040963</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>1191.821308835076</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>902.4041387981149</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X40" t="n">
-        <v>674.4145879000976</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y40" t="n">
-        <v>674.4145879000976</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796252</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C41" t="n">
-        <v>552.8079389392135</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D41" t="n">
-        <v>194.542240332463</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="E41" t="n">
-        <v>66.5121164321834</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="F41" t="n">
-        <v>66.5121164321834</v>
+        <v>173.6956675186672</v>
       </c>
       <c r="G41" t="n">
         <v>66.5121164321834</v>
@@ -7411,10 +7411,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7423,13 +7423,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7456,7 +7456,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
@@ -7490,46 +7490,46 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>530.2513404403937</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C43" t="n">
-        <v>361.3151575124868</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
         <v>361.3151575124868</v>
@@ -7599,22 +7599,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1739.201972223498</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1450.099105349142</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1450.099105349142</v>
+        <v>1372.22619386346</v>
       </c>
       <c r="W43" t="n">
-        <v>1160.681935312181</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="X43" t="n">
-        <v>932.6923844141636</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y43" t="n">
-        <v>711.8998052706335</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1636.597933493125</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C44" t="n">
-        <v>1267.635416552713</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D44" t="n">
-        <v>909.3697179459625</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>523.5814653477182</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
@@ -7660,16 +7660,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
@@ -7678,22 +7678,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923658</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W44" t="n">
-        <v>2413.337105533058</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X44" t="n">
-        <v>2413.337105533058</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y44" t="n">
-        <v>2023.197773557246</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>241.8928126690276</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C46" t="n">
-        <v>72.95662974112065</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D46" t="n">
-        <v>66.5121164321834</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
         <v>315.6219318279954</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1887.114663531709</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>1665.348048101235</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783662</v>
+        <v>1376.245181226878</v>
       </c>
       <c r="V46" t="n">
-        <v>1161.740577577775</v>
+        <v>1121.560693020991</v>
       </c>
       <c r="W46" t="n">
-        <v>872.3234075408147</v>
+        <v>832.1435229840309</v>
       </c>
       <c r="X46" t="n">
-        <v>644.3338566427974</v>
+        <v>604.1539720860136</v>
       </c>
       <c r="Y46" t="n">
-        <v>423.5412774992673</v>
+        <v>383.3613929424835</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8142,16 +8142,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O4" t="n">
-        <v>153.375901684702</v>
+        <v>144.4363991805478</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N7" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>46.56605103777612</v>
+        <v>46.56605103777582</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>2.051220519418266</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777618</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>186.4490126143855</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5463950602909335</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5463950602909904</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.5463950602909904</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.5463950602909904</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>195.2082544971609</v>
       </c>
       <c r="C2" t="n">
-        <v>200.100354594913</v>
+        <v>177.7473046046879</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22564,10 +22564,10 @@
         <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>310.4971021201812</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>198.7123514897339</v>
       </c>
     </row>
     <row r="3">
@@ -22631,22 +22631,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>8.344093795094125</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681583</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>56.78393331510335</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459994</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22728,7 +22728,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917628</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>61.89021848785134</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713061</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750833</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027133</v>
       </c>
       <c r="X4" t="n">
-        <v>38.1840682227172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577484</v>
+        <v>186.234485786691</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046879</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>297.5973467319785</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>253.0688077092983</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871069</v>
       </c>
       <c r="V5" t="n">
-        <v>140.2266713038151</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510932</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22868,22 +22868,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>116.0604645830647</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550658</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714239</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681441</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>60.75343653610113</v>
       </c>
       <c r="W6" t="n">
-        <v>64.1693959945998</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715767</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22965,7 +22965,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553086</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845815</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>19.25466862917642</v>
+        <v>19.25466862917659</v>
       </c>
       <c r="T7" t="n">
-        <v>36.19408632378028</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713064</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750836</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>124.6935433343426</v>
       </c>
       <c r="X7" t="n">
-        <v>38.18406822271734</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>186.2344857866907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23026,22 +23026,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>122.4038561153565</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.1621657402053</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G8" t="n">
-        <v>149.1202946442039</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H8" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.5240586545474</v>
+        <v>203.6809266473733</v>
       </c>
     </row>
     <row r="9">
@@ -23111,16 +23111,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>99.47932027120976</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>43.9218040015056</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.6001301021775</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>29.75633136915494</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23184,25 +23184,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>24.76602554698604</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>204.7191642435938</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>223.2143458795659</v>
+        <v>218.1463464040725</v>
       </c>
       <c r="U10" t="n">
-        <v>22.54475050117134</v>
+        <v>98.73949432713027</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750799</v>
       </c>
       <c r="W10" t="n">
-        <v>22.80911833508486</v>
+        <v>98.99741117027099</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>272.7926294097708</v>
       </c>
       <c r="H11" t="n">
-        <v>294.7321536188796</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
-        <v>42.04518470759555</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>336.0283228504683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>149.8312566091466</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>37.24950764651055</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I13" t="n">
-        <v>96.51626366671982</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>308.8114315566564</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9338715566937</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>41.47727551586246</v>
       </c>
       <c r="I14" t="n">
-        <v>42.04518470759564</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.464536558263</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9711388310543</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06623533991947</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.803454668018</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I16" t="n">
-        <v>96.51626366671985</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.17712508496183</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.55435753342613</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>195.1052701776229</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>151.7438443892532</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.7321536188797</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>42.04518470759564</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>63.60820768710686</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.51626366671985</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>89.17712508496183</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>51.12460430110329</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>174.6770236006348</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>252.1021330222175</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.7321536188797</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>87.8742795620972</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.51626366671985</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>89.17712508496183</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T22" t="n">
-        <v>16.14213605696563</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>24.39367950488719</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>199.1263452822317</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>37.31843237819379</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>58.37633176975854</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>225.706045002281</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>259.1809983914129</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>3.556976973656532</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>321.4674883790889</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>321.4674883790883</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>147.5674171752737</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>147.8785773062518</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>181.5016023052733</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.983764814387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>86.51578244399461</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,22 +25125,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>62.89176707803122</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>6.325135077304303</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>137.0855382856363</v>
       </c>
     </row>
     <row r="36">
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>114.8913310507293</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>85.19879918288751</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>215.1895819463445</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>248.7203808270998</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>39.29187556847378</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>138.8328816311217</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25636,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>255.180547410985</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>304.8100100778345</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>33.33729916982455</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>208.3807601228276</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>228.7603403707193</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>77.43728678753644</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>142.2354048423645</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>149.9909396202256</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>478226.4697685517</v>
+        <v>478226.4697685515</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>478226.4697685515</v>
+        <v>478226.4697685514</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>541944.2064865424</v>
+        <v>478226.4697685519</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>892901.8230948362</v>
+        <v>811180.0165817548</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>892901.823094836</v>
+        <v>811180.0165817547</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894521.728869554</v>
+        <v>892901.8230948359</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894521.7288695545</v>
+        <v>892901.823094836</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>894521.7288695542</v>
+        <v>894521.7288695541</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894521.7288695542</v>
+        <v>894521.7288695541</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>894521.7288695542</v>
+        <v>894521.728869554</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>894521.728869554</v>
+        <v>894521.7288695541</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>894521.7288695541</v>
+        <v>894521.728869554</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>162397.4547967401</v>
+      </c>
+      <c r="C2" t="n">
+        <v>162397.4547967402</v>
+      </c>
+      <c r="D2" t="n">
         <v>162397.4547967404</v>
       </c>
-      <c r="C2" t="n">
-        <v>162397.4547967403</v>
-      </c>
-      <c r="D2" t="n">
-        <v>183569.9230774011</v>
-      </c>
       <c r="E2" t="n">
-        <v>306285.7463411665</v>
+        <v>275374.4674448775</v>
       </c>
       <c r="F2" t="n">
+        <v>275374.4674448775</v>
+      </c>
+      <c r="G2" t="n">
         <v>306285.7463411666</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>306285.7463411666</v>
+      </c>
+      <c r="I2" t="n">
         <v>306897.3890738286</v>
       </c>
-      <c r="H2" t="n">
-        <v>306897.3890738288</v>
-      </c>
-      <c r="I2" t="n">
-        <v>306897.3890738287</v>
-      </c>
       <c r="J2" t="n">
-        <v>306897.3890738288</v>
+        <v>306897.3890738286</v>
       </c>
       <c r="K2" t="n">
-        <v>306897.3890738287</v>
+        <v>306897.3890738286</v>
       </c>
       <c r="L2" t="n">
         <v>306897.3890738286</v>
       </c>
       <c r="M2" t="n">
-        <v>306897.3890738285</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="N2" t="n">
+        <v>306897.3890738286</v>
+      </c>
+      <c r="O2" t="n">
         <v>306897.3890738287</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>306897.3890738286</v>
-      </c>
-      <c r="P2" t="n">
-        <v>306897.3890738287</v>
       </c>
     </row>
     <row r="3">
@@ -26365,49 +26365,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>79834.34398878372</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>548162.4690950282</v>
+        <v>445061.6638164768</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3363.798545983897</v>
+        <v>170000.0824882068</v>
       </c>
       <c r="H3" t="n">
-        <v>5.322456217982109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3258.831101311813</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19282.5712219502</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>140547.3526709352</v>
+        <v>112904.1760744625</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>890.9949338496073</v>
+        <v>45029.21628046107</v>
       </c>
       <c r="P3" t="n">
-        <v>1.612356754776556e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>9240.880119453523</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9240.880119453523</v>
+      </c>
+      <c r="D4" t="n">
         <v>9240.880119453526</v>
       </c>
-      <c r="C4" t="n">
-        <v>9240.880119453524</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11859.77526465972</v>
-      </c>
       <c r="E4" t="n">
+        <v>16175.59256035158</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16175.59256035157</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8694.994654498421</v>
+      </c>
+      <c r="H4" t="n">
         <v>8694.99465449842</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8694.99465449842</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8550.515172066862</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8550.515172066862</v>
       </c>
       <c r="I4" t="n">
         <v>8550.515172066862</v>
@@ -26469,43 +26469,43 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>56985.80041161354</v>
+      </c>
+      <c r="C5" t="n">
+        <v>56985.80041161354</v>
+      </c>
+      <c r="D5" t="n">
         <v>56985.80041161358</v>
       </c>
-      <c r="C5" t="n">
-        <v>56985.80041161356</v>
-      </c>
-      <c r="D5" t="n">
-        <v>63047.80320426619</v>
-      </c>
       <c r="E5" t="n">
-        <v>74015.36825377264</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="F5" t="n">
+        <v>59310.1724398447</v>
+      </c>
+      <c r="G5" t="n">
         <v>74015.3682537726</v>
       </c>
-      <c r="G5" t="n">
-        <v>74306.34056139327</v>
-      </c>
       <c r="H5" t="n">
-        <v>74306.34056139333</v>
+        <v>74015.36825377261</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-506690.0916797381</v>
+        <v>-496336.5245976284</v>
       </c>
       <c r="C6" t="n">
-        <v>84666.81084110728</v>
+        <v>95020.37792321653</v>
       </c>
       <c r="D6" t="n">
-        <v>18500.28543294003</v>
+        <v>95020.37792321637</v>
       </c>
       <c r="E6" t="n">
-        <v>-328097.2551120084</v>
+        <v>-245695.7076439848</v>
       </c>
       <c r="F6" t="n">
-        <v>220065.2139830205</v>
+        <v>199365.9561724921</v>
       </c>
       <c r="G6" t="n">
-        <v>217200.5454963236</v>
+        <v>53224.28399970117</v>
       </c>
       <c r="H6" t="n">
-        <v>220564.3440423071</v>
+        <v>223224.366487908</v>
       </c>
       <c r="I6" t="n">
-        <v>220564.3440423078</v>
+        <v>220434.0833092505</v>
       </c>
       <c r="J6" t="n">
-        <v>171499.3993137628</v>
+        <v>174627.9696820178</v>
       </c>
       <c r="K6" t="n">
-        <v>220564.3440423075</v>
+        <v>223692.9144105624</v>
       </c>
       <c r="L6" t="n">
-        <v>201281.7728203573</v>
+        <v>223692.9144105624</v>
       </c>
       <c r="M6" t="n">
-        <v>80016.99137137213</v>
+        <v>110788.7383361</v>
       </c>
       <c r="N6" t="n">
-        <v>220564.3440423076</v>
+        <v>223692.9144105623</v>
       </c>
       <c r="O6" t="n">
-        <v>219673.3491084578</v>
+        <v>178663.6981301014</v>
       </c>
       <c r="P6" t="n">
-        <v>220564.3440423073</v>
+        <v>223692.9144105624</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="D3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="E3" t="n">
-        <v>1086.755407162287</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="F3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="G3" t="n">
         <v>1086.755407162286</v>
       </c>
-      <c r="G3" t="n">
-        <v>1089.776700593298</v>
-      </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1086.755407162286</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.5255871663197</v>
+      </c>
+      <c r="C4" t="n">
+        <v>187.5255871663196</v>
+      </c>
+      <c r="D4" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="C4" t="n">
-        <v>187.5255871663198</v>
-      </c>
-      <c r="D4" t="n">
-        <v>263.7138800015061</v>
-      </c>
       <c r="E4" t="n">
-        <v>827.6990193689932</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="F4" t="n">
+        <v>640.5848321000385</v>
+      </c>
+      <c r="G4" t="n">
         <v>827.6990193689926</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>65.58507285657379</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>472.7003933928087</v>
+        <v>385.5949512046344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.0212934310116</v>
+        <v>152.6905150447474</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.021293431011827</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,49 +27011,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>76.18829283518633</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>563.985139367487</v>
+        <v>453.0592449337188</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.702436033299819</v>
+        <v>187.1141872689541</v>
       </c>
       <c r="H4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3.702436033299705</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>76.18829283518656</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>563.9851393674868</v>
+        <v>453.0592449337188</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.702436033299705</v>
+        <v>187.1141872689541</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,25 +27257,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>76.18829283518633</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>563.985139367487</v>
+        <v>453.0592449337188</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.702436033299819</v>
+        <v>187.1141872689541</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672891</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,43 +31363,43 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q6" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639161</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K7" t="n">
         <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M7" t="n">
         <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P7" t="n">
         <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S7" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.468562869425036</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>95.1692700235088</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J8" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>314.0104541016252</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>433.4580399459292</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>440.4718441986831</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O8" t="n">
-        <v>415.9250721658379</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q8" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>56.25237638702307</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>45.47482884990948</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J9" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>286.7810703458304</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>334.6599825043656</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N9" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>314.2513427542725</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>252.2144074480712</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>82.00530919736545</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S9" t="n">
-        <v>24.53323569163905</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>5.323741109944814</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H10" t="n">
-        <v>9.845013171582789</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I10" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>78.28698101779068</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K10" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.72230707919121</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R10" t="n">
-        <v>49.78878849350555</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S10" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.731243548715651</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.368865958441351</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H11" t="n">
-        <v>44.7426484968875</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I11" t="n">
-        <v>168.4307048628104</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J11" t="n">
-        <v>370.802037140262</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K11" t="n">
-        <v>555.7361331610845</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L11" t="n">
-        <v>689.4398147367341</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M11" t="n">
-        <v>767.1346347251655</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N11" t="n">
-        <v>779.547675129587</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O11" t="n">
-        <v>736.1047642553358</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P11" t="n">
-        <v>628.2483859063149</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.7883737696338</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R11" t="n">
-        <v>274.4357762619418</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S11" t="n">
-        <v>99.55553302798239</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T11" t="n">
-        <v>19.12471073307702</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U11" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.33754936634907</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H12" t="n">
-        <v>22.57580572237129</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I12" t="n">
-        <v>80.48141458701843</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J12" t="n">
-        <v>220.8471530724795</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K12" t="n">
-        <v>377.4629606178672</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L12" t="n">
-        <v>507.5455323732926</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M12" t="n">
-        <v>592.2816969034463</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N12" t="n">
-        <v>607.9576310312873</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O12" t="n">
-        <v>556.1624582295526</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P12" t="n">
-        <v>446.3694048776571</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.3861261325585</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R12" t="n">
-        <v>145.133108903673</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S12" t="n">
-        <v>43.41895423898379</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T12" t="n">
-        <v>9.421964331906993</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.959722865374615</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4237178394216</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>58.93421126053845</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J13" t="n">
-        <v>138.5524065819853</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K13" t="n">
-        <v>227.6841656317053</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L13" t="n">
-        <v>291.3573430939679</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M13" t="n">
-        <v>307.1954669786772</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N13" t="n">
-        <v>299.8910453895539</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O13" t="n">
-        <v>276.9979191894957</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P13" t="n">
-        <v>237.0195727358534</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.1000664815053</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>88.1162662922077</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S13" t="n">
-        <v>34.15262484475579</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T13" t="n">
-        <v>8.373361333873355</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.368865958441349</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H14" t="n">
-        <v>44.74264849688748</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I14" t="n">
-        <v>168.4307048628103</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J14" t="n">
-        <v>370.8020371402618</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K14" t="n">
-        <v>555.7361331610842</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L14" t="n">
-        <v>689.4398147367339</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M14" t="n">
-        <v>767.1346347251651</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N14" t="n">
-        <v>779.5476751295867</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O14" t="n">
-        <v>736.1047642553355</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P14" t="n">
-        <v>628.2483859063145</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q14" t="n">
-        <v>471.7883737696336</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R14" t="n">
-        <v>274.4357762619417</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S14" t="n">
-        <v>99.55553302798235</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T14" t="n">
-        <v>19.12471073307702</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3495092766753079</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.337549366349069</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H15" t="n">
-        <v>22.57580572237127</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I15" t="n">
-        <v>80.48141458701839</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J15" t="n">
-        <v>220.8471530724794</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K15" t="n">
-        <v>377.462960617867</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L15" t="n">
-        <v>507.5455323732924</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M15" t="n">
-        <v>592.281696903446</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N15" t="n">
-        <v>607.9576310312871</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O15" t="n">
-        <v>556.1624582295524</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P15" t="n">
-        <v>446.3694048776569</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.3861261325584</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R15" t="n">
-        <v>145.133108903673</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S15" t="n">
-        <v>43.41895423898378</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T15" t="n">
-        <v>9.42196433190699</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1537861425229651</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.959722865374615</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H16" t="n">
-        <v>17.42371783942159</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>58.93421126053843</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J16" t="n">
-        <v>138.5524065819853</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K16" t="n">
-        <v>227.6841656317052</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L16" t="n">
-        <v>291.3573430939678</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M16" t="n">
-        <v>307.1954669786771</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N16" t="n">
-        <v>299.8910453895538</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O16" t="n">
-        <v>276.9979191894956</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P16" t="n">
-        <v>237.0195727358533</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.1000664815053</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>88.11626629220765</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S16" t="n">
-        <v>34.15262484475577</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T16" t="n">
-        <v>8.373361333873351</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1068939744749791</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.368865958441349</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.74264849688748</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>370.8020371402618</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>555.7361331610842</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>689.4398147367339</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>767.1346347251651</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>779.5476751295867</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>736.1047642553355</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>628.2483859063145</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>471.7883737696336</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.55553302798235</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3495092766753079</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.57580572237127</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.48141458701839</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>377.462960617867</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>507.5455323732924</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>592.281696903446</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>607.9576310312871</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>556.1624582295524</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>446.3694048776569</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.41895423898378</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.42196433190699</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229651</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>58.93421126053843</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>276.9979191894956</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.0195727358533</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.11626629220765</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.15262484475577</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.373361333873351</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.368865958441349</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.74264849688748</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>370.8020371402618</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>555.7361331610842</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>689.4398147367339</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>767.1346347251651</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>779.5476751295867</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>736.1047642553355</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>628.2483859063145</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>471.7883737696336</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.55553302798235</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3495092766753079</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.57580572237127</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.48141458701839</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>377.462960617867</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>507.5455323732924</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>592.281696903446</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>607.9576310312871</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>556.1624582295524</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>446.3694048776569</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.41895423898378</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.42196433190699</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229651</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>58.93421126053843</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>276.9979191894956</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.0195727358533</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.11626629220765</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.15262484475577</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.373361333873351</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774066011</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,19 +34859,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>92.63945645062394</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="O4" t="n">
-        <v>154.7162589921025</v>
+        <v>145.7767564879483</v>
       </c>
       <c r="P4" t="n">
         <v>116.8989542469472</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405811</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N6" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855691</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M7" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N7" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O7" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P7" t="n">
-        <v>28.45844197068223</v>
+        <v>28.45844197068189</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>28.47028331217709</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K8" t="n">
-        <v>93.92060305664467</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L8" t="n">
-        <v>153.7913200468045</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>203.1118067186565</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N8" t="n">
-        <v>211.0587806020922</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O8" t="n">
-        <v>185.8268607441512</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P8" t="n">
-        <v>123.7494305716377</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q8" t="n">
-        <v>44.27132869117358</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>75.43840481763047</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L9" t="n">
-        <v>245.5483596572286</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M9" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N9" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>171.6550983098281</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>118.240000033741</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q9" t="n">
-        <v>28.61687799649638</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>106.3800667966406</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>213.1601163458916</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N10" t="n">
-        <v>213.581156752698</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O10" t="n">
-        <v>181.0986910958077</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>131.2029511204531</v>
+        <v>28.45844197068235</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.560263827496826</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>189.7561326135757</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K11" t="n">
-        <v>335.6462821161039</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L11" t="n">
-        <v>453.6733997667469</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M11" t="n">
-        <v>536.7884014978928</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N11" t="n">
-        <v>550.1346115329961</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O11" t="n">
-        <v>506.006552833649</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P11" t="n">
-        <v>397.0153901510453</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q11" t="n">
-        <v>249.4826838951843</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R11" t="n">
-        <v>58.85023844780966</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.00952640581281</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K12" t="n">
-        <v>239.6215216435082</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L12" t="n">
-        <v>368.9911525934185</v>
+        <v>484.1293732522357</v>
       </c>
       <c r="M12" t="n">
-        <v>450.147662981428</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N12" t="n">
-        <v>476.615918947954</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O12" t="n">
-        <v>413.5662137851082</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P12" t="n">
-        <v>312.3949974633269</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.404352046537</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19322646531253</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K13" t="n">
-        <v>205.4146738058224</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L13" t="n">
-        <v>318.947368354284</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M13" t="n">
-        <v>346.7793439405178</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N13" t="n">
-        <v>344.0232177687825</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O13" t="n">
-        <v>301.5830471035354</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P13" t="n">
-        <v>234.2981320007469</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.93802322981092</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>189.7561326135755</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K14" t="n">
-        <v>335.6462821161037</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L14" t="n">
-        <v>453.6733997667466</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M14" t="n">
-        <v>536.7884014978924</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N14" t="n">
-        <v>550.1346115329957</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O14" t="n">
-        <v>506.0065528336487</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P14" t="n">
-        <v>397.015390151045</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.4826838951841</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R14" t="n">
-        <v>58.85023844780955</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.00952640581272</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K15" t="n">
-        <v>239.621521643508</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L15" t="n">
-        <v>368.9911525934182</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M15" t="n">
-        <v>450.1476629814277</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N15" t="n">
-        <v>476.6159189479538</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O15" t="n">
-        <v>413.5662137851079</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P15" t="n">
-        <v>312.3949974633267</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.4043520465369</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19322646531248</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K16" t="n">
-        <v>205.4146738058223</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L16" t="n">
-        <v>318.9473683542839</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M16" t="n">
-        <v>346.7793439405177</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N16" t="n">
-        <v>344.0232177687824</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O16" t="n">
-        <v>301.5830471035353</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P16" t="n">
-        <v>234.2981320007468</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.93802322981087</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>189.7561326135755</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>335.6462821161037</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>453.6733997667466</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>536.7884014978924</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>550.1346115329957</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>506.0065528336487</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>397.015390151045</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>249.4826838951841</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>58.85023844780955</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.00952640581272</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>239.621521643508</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>368.9911525934182</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>450.1476629814277</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>476.6159189479538</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>413.5662137851079</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>312.3949974633267</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>158.404352046537</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.19322646531248</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>205.4146738058223</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>318.9473683542839</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>301.5830471035353</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>77.93802322981087</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>189.7561326135755</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>335.6462821161037</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>453.6733997667466</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>536.7884014978924</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>550.1346115329957</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>506.0065528336487</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>397.015390151045</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>249.4826838951841</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>58.85023844780955</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.00952640581272</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>239.621521643508</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>368.9911525934182</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>450.1476629814277</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>476.6159189479538</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>413.5662137851079</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>312.3949974633267</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.19322646531248</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>205.4146738058223</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>318.9473683542839</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>301.5830471035353</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>77.93802322981087</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
